--- a/biology/Zoologie/Cestrotus/Cestrotus.xlsx
+++ b/biology/Zoologie/Cestrotus/Cestrotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cestrotus  est un genre de diptères de la famille des Lauxaniidae.
 </t>
@@ -511,32 +523,34 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C. acuticurvus Li, Yang &amp; Gaimari, 2009[2]
-C. apicalis (Hendel, 1920)[3]
-C. argenteus Hendel, 1920[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C. acuticurvus Li, Yang &amp; Gaimari, 2009
+C. apicalis (Hendel, 1920)
+C. argenteus Hendel, 1920
 C. cutherbertsoni Curran, 1938
-C. elegans Hendel, 1920[3]
+C. elegans Hendel, 1920
 C. flavipes (Frey, 1927)
 C. flavoscutellatus de Meijere, 1910
 C. frontalis (Kertész, 1904)
 C. hennigi (Lindner, 1956)
-C. heteropterus Li, Yang &amp; Gaimari, 2009[2]
-C. liui Li, Yang &amp; Gaimari, 2009[2]
-C. longinudus Li, Yang &amp; Gaimari, 2009[2]
-C. megacephalus Loew, 1862[1]
-C. obtusus Li, Yang &amp; Gaimari, 2009[2]
+C. heteropterus Li, Yang &amp; Gaimari, 2009
+C. liui Li, Yang &amp; Gaimari, 2009
+C. longinudus Li, Yang &amp; Gaimari, 2009
+C. megacephalus Loew, 1862
+C. obtusus Li, Yang &amp; Gaimari, 2009
 C. oculatus Hendel, 1910
 C. pictipennis (Wiedemann, 1824)
-C. pilosus (Hendel, 1920)[3]
+C. pilosus (Hendel, 1920)
 C. polygrammus (Walker, 1861)
 C. striatus Hendel, 1910
 C. tibialis Bezzi, 1908
-C. trivittatus Sasakawa, 2003[4]
-C. turritus Loew, 1862[1]
-C. univittatus Sasakawa, 2003[4]
-C. variegatus Loew, 1862[1]</t>
+C. trivittatus Sasakawa, 2003
+C. turritus Loew, 1862
+C. univittatus Sasakawa, 2003
+C. variegatus Loew, 1862</t>
         </is>
       </c>
     </row>
